--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Camera_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Camera_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -58,14 +58,6 @@
   </si>
   <si>
     <t>Change Start page</t>
-  </si>
-  <si>
-    <t><![CDATA[wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,<StartPage value="http://127.0.0.1:8082/app/" name="Menu"/>);
-ChangeConfigxml(Configuration,WebServer,<WebServer>endl  <Enabled VALUE="1"/>endl  <Port VALUE="8082"/>endl  <WebFolder VALUE="\\auto\\manual_common_spec\"/>endl  <Public VALUE="1"/>endl</WebServer>endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,<FullScreen value="0"/>);
-PushConfigxml;]]></t>
   </si>
   <si>
     <t>Should call takePicture</t>
@@ -909,10 +901,11 @@
 wait(2);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-validate_AppMinimized(appsscreen);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
 {
 validate_PageTitle=Manual specs
 };
@@ -924,20 +917,24 @@
 {
 validate_Text_Exists=VT285-0067
 };
-</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1443,17 +1440,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="47.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.5283203125" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="65.25" thickBot="1">
@@ -1497,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>10</v>
@@ -1509,15 +1508,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="281.25" thickBot="1">
@@ -1532,21 +1529,19 @@
         <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="13">
         <v>1</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="243" thickBot="1">
@@ -1561,16 +1556,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="13">
         <v>1</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1588,16 +1583,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1615,16 +1610,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1642,16 +1637,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1669,16 +1664,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -1696,16 +1691,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -1723,16 +1718,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="H10" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -1749,16 +1744,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -1776,16 +1771,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -1803,16 +1798,16 @@
         <v>10</v>
       </c>
       <c r="E13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="H13" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1830,16 +1825,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>63</v>
-      </c>
       <c r="H14" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -1857,16 +1852,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="H15" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -1884,16 +1879,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="13">
         <v>1</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -1911,16 +1906,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -1937,16 +1932,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -1963,16 +1958,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -1989,16 +1984,16 @@
         <v>10</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -2016,16 +2011,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="F21" s="13">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -2042,16 +2037,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="13">
         <v>1</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -2069,22 +2064,22 @@
         <v>10</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="13">
         <v>1</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" s="16" customFormat="1" ht="179.25" thickBot="1">
+    <row r="24" spans="1:11" s="16" customFormat="1" ht="204.75" thickBot="1">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -2096,16 +2091,16 @@
         <v>10</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="13">
         <v>1</v>
       </c>
       <c r="G24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -2378,9 +2373,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Camera_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Camera_JS.xlsx
@@ -307,20 +307,6 @@
 validate1;
 link_Click(camera_main_link);
 validate2;
-SelectTestToRun(VT285_0034_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(4);
-sendKeyEvents(SOFTBACK);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(camera_main_link);
-validate2;
 SelectTestToRun(VT285_0033_string);
 ClickRunTest(runtest_top_xpath);
 wait(2);
@@ -366,20 +352,6 @@
 validate1;
 link_Click(camera_main_link);
 validate2;
-SelectTestToRun(VT285_0050_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-ClickCameraNativeButton(0);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(camera_main_link);
-validate2;
 SelectTestToRun(VT285_0053_string);
 ClickRunTest(runtest_top_xpath);
 wait(2);
@@ -699,6 +671,153 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Camera Main Tests
+};
+validate3
+{
+validate_Text_Exists=VT285-0001
+};
+validate4
+{
+validate_Text_Exists=VT285-0001
+validate_Result=ok
+validate_Result=jpg
+validate_Result=/data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/IMG_
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Camera Main Tests
+};
+validate3
+{
+validate_Text_Exists=VT285-0002
+};
+validate4
+{
+validate_Text_Exists=VT285-0002
+validate_Result=cancel
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Camera Main Tests
+};
+validate3
+{
+validate_Text_Exists=VT285-0003
+};
+validate4
+{
+validate_Text_Exists=VT285-0003
+validate_Result=ok
+validate_Result=jpg
+validate_Result=/data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/IMG_
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Camera Main Tests
+};
+validate3
+{
+validate_Text_Exists=VT285-0004
+};
+validate4
+{
+validate_Text_Exists=VT285-0004
+validate_Result=ok
+validate_Result=jpg
+validate_Result=data:image/jpeg;base64
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Camera Main Tests
+};
+validate3
+{
+validate_Text_Exists=VT285-0012
+};
+validate4
+{
+validate_Text_Exists=VT285-0012
+validate_Result=ok
+validate_Result=jpg
+validate_Result=/data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/IMG_
+};
+</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(camera_main_link);
+validate2;
+SelectTestToRun(VT285_0067_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Camera Main Tests
+};
+validate3
+{
+validate_Text_Exists=VT285-0067
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
+PushConfigxml;</t>
+  </si>
+  <si>
     <t>wait(5);
 validate1;
 link_Click(camera_main_link);
@@ -708,34 +827,27 @@
 wait(2);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(2);
 CheckUITextContains(Look_In);
-CheckUITextContain(Gallery);
+CheckUITextContains(Gallery);
 ClickUITextView(zebratexture);
 ClickUIButtonText(Open);
 validate4;</t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Camera Main Tests
-};
-validate3
-{
-validate_Text_Exists=VT285-0001
-};
-validate4
-{
-validate_Text_Exists=VT285-0001
-validate_Result=ok
-validate_Result=jpg
-validate_Result=/data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/IMG_
-};
-</t>
+    <t>wait(5);
+validate1;
+link_Click(camera_main_link);
+validate2;
+SelectTestToRun(VT285_0004_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+CheckUITextContains(Look_In);
+CheckUITextContains(Gallery);
+ClickUITextView(zebrasmall);
+ClickUIButtonText(Open);
+validate4;</t>
   </si>
   <si>
     <t>wait(5);
@@ -747,31 +859,10 @@
 wait(2);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(2);
 CheckUITextContains(Look_In);
-CheckUITextContain(Gallery);
+CheckUITextContains(Gallery);
 ClickUIButtonText(Cancel);
 validate4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Camera Main Tests
-};
-validate3
-{
-validate_Text_Exists=VT285-0002
-};
-validate4
-{
-validate_Text_Exists=VT285-0002
-validate_Result=cancel
-};
-</t>
   </si>
   <si>
     <t>wait(5);
@@ -783,73 +874,11 @@
 wait(2);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(2);
 CheckUITextContains(Look_In);
-CheckUITextContain(Gallery);
+CheckUITextContains(Gallery);
 ClickUITextView(zebratexture);
 ClickUIButtonText(Open);
 validate4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Camera Main Tests
-};
-validate3
-{
-validate_Text_Exists=VT285-0003
-};
-validate4
-{
-validate_Text_Exists=VT285-0003
-validate_Result=ok
-validate_Result=jpg
-validate_Result=/data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/IMG_
-};
-</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(camera_main_link);
-validate2;
-SelectTestToRun(VT285_0004_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-CheckUITextContains(Look_In);
-CheckUITextContain(Gallery);
-ClickUITextView(zebrasmall);
-ClickUIButtonText(Open);
-validate4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Camera Main Tests
-};
-validate3
-{
-validate_Text_Exists=VT285-0004
-};
-validate4
-{
-validate_Text_Exists=VT285-0004
-validate_Result=ok
-validate_Result=jpg
-validate_Result=data:image/jpeg;base64
-};
-</t>
   </si>
   <si>
     <t>wait(5);
@@ -864,71 +893,38 @@
 CheckUITextContains(Look_In);
 Lock_UnlockScreen(lock);
 Lock_UnlockScreen(unlock);
-CheckUITextContain(Gallery);
+CheckUITextContains(Gallery);
 ClickUITextView(zebratexture);
 ClickUIButtonText(Open);
 validate4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Camera Main Tests
-};
-validate3
-{
-validate_Text_Exists=VT285-0012
-};
-validate4
-{
-validate_Text_Exists=VT285-0012
-validate_Result=ok
-validate_Result=jpg
-validate_Result=/data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/IMG_
-};
-</t>
   </si>
   <si>
     <t>wait(5);
 validate1;
 link_Click(camera_main_link);
 validate2;
-SelectTestToRun(VT285_0067_string);
+SelectTestToRun(VT285_0034_string);
 ClickRunTest(runtest_top_xpath);
 wait(2);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(2);
+wait(5);
+press_Key(Back);
 validate4;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Camera Main Tests
-};
-validate3
-{
-validate_Text_Exists=VT285-0067
-};
-validate4
-{
-validate_AppMinimized=com.symbol.enterprisebrowser
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
-PushConfigxml;</t>
+    <t>wait(5);
+validate1;
+link_Click(camera_main_link);
+validate2;
+SelectTestToRun(VT285_0050_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+ClickCameraNativeButton(0);
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1437,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1508,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="1" t="s">
@@ -1529,16 +1525,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="13">
         <v>1</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1556,16 +1552,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="13">
         <v>1</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1583,16 +1579,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1610,16 +1606,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1637,16 +1633,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1670,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>21</v>
@@ -1697,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>32</v>
@@ -1718,16 +1714,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -1750,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>20</v>
@@ -1777,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>18</v>
@@ -1798,16 +1794,16 @@
         <v>10</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="13">
         <v>1</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1825,16 +1821,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" s="13">
         <v>1</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -1852,16 +1848,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="13">
         <v>1</v>
       </c>
       <c r="G15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -1885,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>33</v>
@@ -1912,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>22</v>
@@ -1938,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>25</v>
@@ -1964,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>27</v>
@@ -1990,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>28</v>
@@ -2017,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>31</v>
@@ -2037,16 +2033,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="13">
-        <v>1</v>
-      </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -2064,16 +2060,16 @@
         <v>10</v>
       </c>
       <c r="E23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="13">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="H23" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -2091,16 +2087,16 @@
         <v>10</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" s="13">
         <v>1</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
